--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.17690000000001</v>
+        <v>-22.1767</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.85949999999999</v>
+        <v>-21.82899999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.07779999999998</v>
+        <v>-20.10409999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.21029999999998</v>
+        <v>-20.06969999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.78939999999997</v>
+        <v>-21.77499999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.99799999999996</v>
+        <v>-21.08419999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.02289999999997</v>
+        <v>-20.68129999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.9751</v>
+        <v>-22.0549</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.56590000000001</v>
+        <v>-22.58110000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.221</v>
+        <v>-22.2971</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62209999999999</v>
+        <v>-21.62179999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.3941</v>
+        <v>-20.18830000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8866</v>
+        <v>-21.9583</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.59349999999998</v>
+        <v>-20.49639999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.42340000000001</v>
+        <v>-21.42280000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.6924</v>
+        <v>-21.76569999999999</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
